--- a/APO_results.xlsx
+++ b/APO_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>run</t>
   </si>
@@ -75,15 +75,9 @@
     <t>acyclic</t>
   </si>
   <si>
-    <t>monocyclic</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>non-aromatic cyclic</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -114,10 +108,7 @@
     <t>CH2O</t>
   </si>
   <si>
-    <t>CH2 (cyclic)</t>
-  </si>
-  <si>
-    <t>O (cyclic)</t>
+    <t>COOH</t>
   </si>
   <si>
     <t>group_g</t>
@@ -139,12 +130,6 @@
   </si>
   <si>
     <t>CH2-</t>
-  </si>
-  <si>
-    <t>ring-CH2-</t>
-  </si>
-  <si>
-    <t>ring-O-</t>
   </si>
 </sst>
 </file>
@@ -502,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2">
-        <v>1.219345820325038</v>
+        <v>0.4064486067750132</v>
       </c>
       <c r="F2">
         <v>157.4186347308988</v>
@@ -590,10 +575,10 @@
         <v>2.032250378862681</v>
       </c>
       <c r="I2">
-        <v>256.460940757065</v>
+        <v>256.4609407570613</v>
       </c>
       <c r="J2">
-        <v>402.8331392856129</v>
+        <v>402.8331392856026</v>
       </c>
       <c r="K2">
         <v>0.0665</v>
@@ -602,19 +587,19 @@
         <v>18</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.13686837721616E-13</v>
+        <v>2.193800696659309E-13</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -646,10 +631,10 @@
         <v>2.03225037886268</v>
       </c>
       <c r="I3">
-        <v>256.460940757065</v>
+        <v>256.460940757061</v>
       </c>
       <c r="J3">
-        <v>402.833139285613</v>
+        <v>402.833139285603</v>
       </c>
       <c r="K3">
         <v>0.0665</v>
@@ -658,19 +643,19 @@
         <v>18</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.989519660128281E-13</v>
+        <v>2.096101070492296E-13</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -714,13 +699,13 @@
         <v>18</v>
       </c>
       <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -749,10 +734,10 @@
         <v>-1.170047158438866</v>
       </c>
       <c r="F5">
-        <v>440.3651782665147</v>
+        <v>440.3651782665148</v>
       </c>
       <c r="G5">
-        <v>4.732607666824606</v>
+        <v>4.732607666824151</v>
       </c>
       <c r="H5">
         <v>0.035858524683402</v>
@@ -770,13 +755,13 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -793,46 +778,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8250409548700729</v>
+        <v>0.4256550457244101</v>
       </c>
       <c r="F6">
-        <v>164.2494006357306</v>
+        <v>182.8443895835642</v>
       </c>
       <c r="G6">
-        <v>13.38688085676038</v>
+        <v>14.88095238095238</v>
       </c>
       <c r="H6">
-        <v>0.606771378666445</v>
+        <v>1.582021702917888</v>
       </c>
       <c r="I6">
-        <v>231.1041882187695</v>
+        <v>302.1019210030461</v>
       </c>
       <c r="J6">
-        <v>396.4664274967145</v>
+        <v>439.9779374127199</v>
       </c>
       <c r="K6">
-        <v>0.0747</v>
+        <v>0.0672</v>
       </c>
       <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
         <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -841,6 +826,118 @@
         <v>2.273736754432321E-13</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.8619645136854066</v>
+      </c>
+      <c r="F7">
+        <v>157.4186347308988</v>
+      </c>
+      <c r="G7">
+        <v>15.03759398496241</v>
+      </c>
+      <c r="H7">
+        <v>2.032250378862681</v>
+      </c>
+      <c r="I7">
+        <v>256.4609407570613</v>
+      </c>
+      <c r="J7">
+        <v>402.8331392856026</v>
+      </c>
+      <c r="K7">
+        <v>0.0665</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2.193800696659309E-13</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>-0.1276476913412365</v>
+      </c>
+      <c r="F8">
+        <v>157.418634730899</v>
+      </c>
+      <c r="G8">
+        <v>15.0375939849624</v>
+      </c>
+      <c r="H8">
+        <v>2.032250378862682</v>
+      </c>
+      <c r="I8">
+        <v>256.460940757061</v>
+      </c>
+      <c r="J8">
+        <v>402.833139285603</v>
+      </c>
+      <c r="K8">
+        <v>0.0665</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2.096101070492296E-13</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
     </row>
@@ -851,7 +948,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -873,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -884,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -895,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -906,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -917,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -928,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -939,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -950,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -961,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -972,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -983,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -994,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1005,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1016,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1027,10 +1124,76 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1062,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1073,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1084,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1095,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1106,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1117,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1128,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1139,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1150,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1161,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1172,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1183,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1194,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1205,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1216,10 +1379,76 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
